--- a/测试结果记录2024.03.02.xlsx
+++ b/测试结果记录2024.03.02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\POPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9ED296-81C1-4049-A790-77EB0E8A4DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78510E4A-EA52-43EE-9810-9EEE477825CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,73 +710,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="4"/>
+      <c r="V2" s="5"/>
       <c r="W2" s="1" t="s">
         <v>48</v>
       </c>
@@ -844,7 +847,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -915,7 +918,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -984,7 +987,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1056,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1125,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1194,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1263,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1329,7 +1332,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1401,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1467,7 +1470,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +1539,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1608,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1677,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1743,7 +1746,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1812,46 +1815,46 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4" t="s">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4" t="s">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4" t="s">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4" t="s">
+      <c r="T19" s="5"/>
+      <c r="U19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V19" s="4"/>
+      <c r="V19" s="5"/>
       <c r="W19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1919,7 +1922,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1990,7 +1993,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -2059,7 +2062,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2131,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2197,7 +2200,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2266,7 +2269,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2335,7 +2338,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2404,7 +2407,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2473,7 +2476,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2542,7 +2545,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2611,7 +2614,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2692,46 +2695,46 @@
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4" t="s">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4" t="s">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4" t="s">
+      <c r="R33" s="5"/>
+      <c r="S33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4" t="s">
+      <c r="T33" s="5"/>
+      <c r="U33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V33" s="4"/>
+      <c r="V33" s="5"/>
       <c r="W33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2799,7 +2802,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2870,7 +2873,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,7 +2942,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
@@ -3008,7 +3011,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
@@ -3077,7 +3080,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,7 +3149,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3215,7 +3218,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3284,7 +3287,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,7 +3356,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3422,7 +3425,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
@@ -3490,47 +3493,53 @@
         <v>0.85248699999999999</v>
       </c>
     </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4" t="s">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4" t="s">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4" t="s">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4" t="s">
+      <c r="N46" s="5"/>
+      <c r="O46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4" t="s">
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4" t="s">
+      <c r="R46" s="5"/>
+      <c r="S46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4" t="s">
+      <c r="T46" s="5"/>
+      <c r="U46" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V46" s="4"/>
+      <c r="V46" s="5"/>
       <c r="W46" s="1" t="s">
         <v>48</v>
       </c>
@@ -3598,7 +3607,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="1">
@@ -3639,7 +3648,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="1">
         <v>2</v>
       </c>
@@ -3678,7 +3687,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="1">
         <v>3</v>
       </c>
@@ -3717,7 +3726,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="1">
         <v>4</v>
       </c>
@@ -3756,7 +3765,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="1">
         <v>5</v>
       </c>
@@ -3795,7 +3804,7 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="1">
         <v>6</v>
       </c>
@@ -3834,7 +3843,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="1">
         <v>7</v>
       </c>
@@ -3873,7 +3882,7 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="1">
         <v>8</v>
       </c>
@@ -3912,7 +3921,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="1">
         <v>9</v>
       </c>
@@ -3951,7 +3960,7 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="1">
         <v>10</v>
       </c>
@@ -3990,7 +3999,7 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="1" t="s">
         <v>26</v>
       </c>
